--- a/DB/Tablas de aprendizaje de movimientos/Deino, Zweilous y Hydreigon.xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Deino, Zweilous y Hydreigon.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\RETOCAR Tablas de movimientos - copia\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Desktop\convertidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11550" windowHeight="5415" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Deino" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hydreigon!$A$2:$A$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Zweilous!$A$2:$A$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Zweilous!$A$2:$A$30</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Hydreigon!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">Zweilous!#REF!</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="41">
   <si>
     <t>Movimiento</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Placaje</t>
   </si>
   <si>
-    <t>Furia dragón</t>
-  </si>
-  <si>
     <t>Foco energía</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>Falsotortazo</t>
   </si>
   <si>
-    <t>Esfera aural</t>
-  </si>
-  <si>
     <t>Poder oculto</t>
   </si>
   <si>
@@ -151,16 +145,22 @@
     <t>Bola sombra</t>
   </si>
   <si>
-    <t>Viento afín</t>
-  </si>
-  <si>
     <t>Danza dragón</t>
+  </si>
+  <si>
+    <t>Rugido de guerra</t>
+  </si>
+  <si>
+    <t>Golpe cabeza</t>
+  </si>
+  <si>
+    <t>Furia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,19 +499,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -527,212 +527,228 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
       <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -746,19 +762,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="A17:B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,220 +782,236 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
       <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -993,19 +1025,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="A17:B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,284 +1045,284 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B35" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
